--- a/Beneficient/test_Transactions/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Transactions/Executiondir/Execution.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -429,7 +429,31 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_TransactionFundDetailsElements</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_TransactionDealTemplateElements</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Beneficient/test_Transactions/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Transactions/Executiondir/Execution.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -453,12 +453,18 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_TaskManagementElements</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
